--- a/outputs/how_many_time_software_was_found_in_case_studies.xlsx
+++ b/outputs/how_many_time_software_was_found_in_case_studies.xlsx
@@ -404,19 +404,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D2" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E2" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
